--- a/res/2024_0405.xlsx
+++ b/res/2024_0405.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB0DC58-BAB7-4FE4-AF23-4789F20D32E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7E2B80-786D-4C8B-B9DD-4715ABE7D590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0414" sheetId="1" r:id="rId1"/>
+    <sheet name="GIT操作" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>JAVA</t>
   </si>
@@ -189,6 +190,45 @@
   </si>
   <si>
     <t>java -version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打JAR包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中JAVA工程，点右键，导出，执行可能JAR文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在生产环境，一般提供JAR包，通过命令执行程序代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEUG构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在开发环境里用下面方法执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java -jar jar文件  参数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIT显示 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WINDOWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIEW表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,6 +649,1501 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11381</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>168177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25F1E00-B81B-CB60-747C-76C488DE65AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="658813" y="35718750"/>
+          <a:ext cx="10552381" cy="7133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>236882</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>71276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B9A773-7FBA-A033-27F6-A4001F8849DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="43160950"/>
+          <a:ext cx="8809382" cy="2960526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>460197</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>84878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFEE96F-9793-8899-6DC9-70019191B1B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="661276" y="47042552"/>
+          <a:ext cx="13685714" cy="8523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>265591</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>90307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6F776C-CC87-51AF-09D3-30162A54E31F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657412" y="56836235"/>
+          <a:ext cx="2895238" cy="3676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>577274</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139567</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BDF7B7-6FAD-424C-9310-33426EA18678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2558474" y="18761364"/>
+          <a:ext cx="6166293" cy="2535382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>580571</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>142595</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>43666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51583C44-2887-4627-9B49-4EAA5BE3AB0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11146971" y="9728200"/>
+          <a:ext cx="9468024" cy="13251666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>137904</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>87143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F0D1BF-D342-4030-8438-35B5681FE1CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="177800"/>
+          <a:ext cx="10704304" cy="10221743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>90905</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>54761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40CF4AB-EEB8-48C0-A598-DA4053BA18F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="11023600"/>
+          <a:ext cx="9336505" cy="4499761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>90715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE205ED-6316-45A5-9218-80D1390D3213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="10795000"/>
+          <a:ext cx="18143" cy="5297715"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335643</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="对话气泡: 圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA08684-55F4-4961-BD44-C4EC99C54A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1177472" y="16767628"/>
+          <a:ext cx="3120571" cy="615044"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46340"/>
+            <a:gd name="adj2" fmla="val -289674"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>git@github.com:dbtoolsserver03/takada.git</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>644071</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>602013</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>129888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1177C481-DB61-4BEE-A979-780EA33FA621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7248071" y="14953343"/>
+          <a:ext cx="3920342" cy="5623545"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>602013</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>170709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>43708</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>89066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形: 圆角 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801B3932-EFB4-4168-8085-FA9B34CA5C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11168413" y="19550909"/>
+          <a:ext cx="4724895" cy="2051957"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>473364</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B6FE34-023C-4A10-B505-3F50131A1586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8559800" y="15149285"/>
+          <a:ext cx="5781964" cy="1053606"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>11545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99ECF029-1285-4E75-95C5-01D4A801D8C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9384145" y="11896436"/>
+          <a:ext cx="1842655" cy="1805709"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>376876</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形: 圆角 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8F3CA2-8AAB-4D3A-A6DC-D70CD586ED28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11330709" y="10250054"/>
+          <a:ext cx="4235367" cy="4812146"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>46181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="椭圆 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9F0E41-D2C0-4B95-9E4E-1411E9BD6AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14376400" y="16048181"/>
+          <a:ext cx="602673" cy="447965"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>46181</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>646545</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>161636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="椭圆 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325F5297-18C5-42B6-907E-3E39A7CA898D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19197781" y="22402800"/>
+          <a:ext cx="1260764" cy="695036"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>11556</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>103914</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="连接符: 肘形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA240886-B18B-4584-843E-1EDA954A2D9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6445827" y="15584055"/>
+          <a:ext cx="13377729" cy="7633859"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>11544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288636</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="椭圆 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73C8FCE-4161-4AC0-9FBB-7E11A7BBB8D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6001327" y="14946744"/>
+          <a:ext cx="891309" cy="637310"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646545</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>150090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>427182</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>150091</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9918368-FCCC-41DD-BBFE-7CF58E2F1A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3948545" y="15085290"/>
+          <a:ext cx="1101437" cy="4800601"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>461819</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形: 圆角 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E754926-E54E-4F6E-B653-47C7A828744A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3405909" y="19862800"/>
+          <a:ext cx="1678710" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>536864</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>150091</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="连接符: 肘形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73F5AF7-8B03-4255-BEAA-23F20005A802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="4"/>
+          <a:endCxn id="21" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="6722918" y="12101945"/>
+          <a:ext cx="7880927" cy="14087765"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2977"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>565727</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>161637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>150091</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="椭圆 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B99AD2-972A-4ABF-B15A-1B16407B07B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17075727" y="22386637"/>
+          <a:ext cx="1263073" cy="699654"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>531090</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="椭圆 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14A1B94-51A2-4DFF-8FB8-99B7D669BFEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3172690" y="14563437"/>
+          <a:ext cx="893619" cy="641927"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>305955</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="对话气泡: 圆角矩形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B867F7D-A765-426C-9A53-DF7C2FB47D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9551555" y="8174182"/>
+          <a:ext cx="4100946" cy="1052368"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -143080"/>
+            <a:gd name="adj2" fmla="val 390964"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>选中工程，右键，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TEAM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PULL</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -877,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:N176"/>
+  <dimension ref="A4:N316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView topLeftCell="A302" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M333" sqref="M333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1073,9 +2608,74 @@
         <v>38</v>
       </c>
     </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>41</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B314" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C315" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D316" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CB20D8-6B6E-4D3A-97A1-2840DA3CB6C4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AH93" sqref="AH93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/res/2024_0405.xlsx
+++ b/res/2024_0405.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB0DC58-BAB7-4FE4-AF23-4789F20D32E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAC5CFA-46C0-45B6-B4F4-AA77C4061751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>JAVA</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>java -version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将MASTER的代码MERGE自己的分支里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.PULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.merge,选202404_master分支（remote）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:N176"/>
+  <dimension ref="A4:N204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1073,6 +1085,21 @@
         <v>38</v>
       </c>
     </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res/2024_0405.xlsx
+++ b/res/2024_0405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\0407\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAC5CFA-46C0-45B6-B4F4-AA77C4061751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB8B44B-E0D8-4416-AA93-019125569EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,6 +623,106 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>149905</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>61781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46C45BE-89C3-E807-F997-72C35CDA2FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="36449000"/>
+          <a:ext cx="19961905" cy="13752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>611910</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>300182</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>46182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51B2839-53D4-194A-A05B-3DFF9324E4A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="19038455" y="48433182"/>
+          <a:ext cx="1004454" cy="969818"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -891,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:N204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X287" sqref="X287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
